--- a/Excel to json convertor/sample-format/dataElementsNameShortNameUpdate.xlsx
+++ b/Excel to json convertor/sample-format/dataElementsNameShortNameUpdate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mithilesh Thakur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DE2D40-03C0-4ECD-BD92-40B47EAD81DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C2169B-DD3D-4882-A498-5E4E0E769CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataElementsNameShortNameUpdate" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="577">
   <si>
     <t>name</t>
   </si>
@@ -39,778 +39,1729 @@
     <t>uid</t>
   </si>
   <si>
-    <t>W73hqjr3SO1</t>
-  </si>
-  <si>
-    <t>Weight (in kgs)_HIV</t>
-  </si>
-  <si>
-    <t>qizrYBWrrW6</t>
-  </si>
-  <si>
-    <t>Switch treatment_HIV</t>
-  </si>
-  <si>
-    <t>oVncLjadvt6</t>
-  </si>
-  <si>
-    <t>Other (HIV Co-infection)_HIV</t>
-  </si>
-  <si>
-    <t>wmf5TJFfwYj</t>
-  </si>
-  <si>
-    <t>CPT prophylaxis initiation date_HIV</t>
-  </si>
-  <si>
-    <t>cDvBhIUOBtY</t>
-  </si>
-  <si>
-    <t>Was ART treatment received before?_HIV</t>
-  </si>
-  <si>
-    <t>q3FUR7gOwda</t>
-  </si>
-  <si>
-    <t>Sputum collection_HIV</t>
-  </si>
-  <si>
-    <t>loezvKBfCp2</t>
-  </si>
-  <si>
-    <t>DLC - Monocytes_HIV</t>
-  </si>
-  <si>
-    <t>Q0dtPPmvRs0</t>
-  </si>
-  <si>
-    <t>Date of Diagnosis_HIV</t>
-  </si>
-  <si>
-    <t>jnp2YDVum7Y</t>
-  </si>
-  <si>
-    <t>Is ART initiated_HIV</t>
-  </si>
-  <si>
-    <t>cSqDb1HCPBX</t>
-  </si>
-  <si>
-    <t>Treatment details_HIV</t>
-  </si>
-  <si>
-    <t>tuMTZPvkupL</t>
-  </si>
-  <si>
-    <t>GenExpert date of test_HIV</t>
-  </si>
-  <si>
-    <t>RaYHr1ENDHI</t>
-  </si>
-  <si>
-    <t>AST_HIV</t>
-  </si>
-  <si>
-    <t>UxeQgAg0xu6</t>
-  </si>
-  <si>
-    <t>Haemoglobin_HIV</t>
-  </si>
-  <si>
-    <t>ztm8CteG5o6</t>
-  </si>
-  <si>
-    <t>Treatment substitution_HIV</t>
-  </si>
-  <si>
-    <t>w8lSDukNsUp</t>
-  </si>
-  <si>
-    <t>Co-infection_HIV</t>
-  </si>
-  <si>
-    <t>zf2M2ROrZAH</t>
-  </si>
-  <si>
-    <t>DLC - Neutrophils_HIV</t>
-  </si>
-  <si>
-    <t>gxAeR1KS2Zb</t>
-  </si>
-  <si>
-    <t>Screened for TB_HIV</t>
-  </si>
-  <si>
-    <t>h7HxgAWMb7U</t>
-  </si>
-  <si>
-    <t>Place of Diagnosis_HIV</t>
-  </si>
-  <si>
-    <t>QixTYO1QiMU</t>
-  </si>
-  <si>
-    <t>IPT prophylaxis initiation date_HIV</t>
-  </si>
-  <si>
-    <t>gnrgFixqUOL</t>
-  </si>
-  <si>
-    <t>Extrapulmonary TB_HIV</t>
-  </si>
-  <si>
-    <t>opWZ5ENmPCM</t>
-  </si>
-  <si>
-    <t>Clinical or immune failure or viral load not suppressed_HIV</t>
-  </si>
-  <si>
-    <t>sa5PdVT1yMp</t>
-  </si>
-  <si>
-    <t>Potassium_HIV</t>
-  </si>
-  <si>
-    <t>SYOUZTUjdRD</t>
-  </si>
-  <si>
-    <t>Sodium_HIV</t>
-  </si>
-  <si>
-    <t>HilvFJS8Cpg</t>
-  </si>
-  <si>
-    <t>Viral load (baseline)_HIV</t>
-  </si>
-  <si>
-    <t>uk74Fz7cFNW</t>
-  </si>
-  <si>
-    <t>Other psycho social services_HIV</t>
-  </si>
-  <si>
-    <t>UdH6Ol8SVsk</t>
-  </si>
-  <si>
-    <t>Art not initiated_HIV</t>
-  </si>
-  <si>
-    <t>Xsax487v2Gy</t>
-  </si>
-  <si>
-    <t>Past history of TB_HIV</t>
-  </si>
-  <si>
-    <t>RiFuwClAVUm</t>
-  </si>
-  <si>
-    <t>GenExpert_HIV</t>
-  </si>
-  <si>
-    <t>WGop6P2LCF0</t>
-  </si>
-  <si>
-    <t>Montoux date of test_HIV</t>
-  </si>
-  <si>
-    <t>dZXIzlVs9ds</t>
-  </si>
-  <si>
-    <t>Type of co-infection_HIV</t>
-  </si>
-  <si>
-    <t>bS0bKmQ2FyL</t>
-  </si>
-  <si>
-    <t>Status of treatment_HIV</t>
-  </si>
-  <si>
-    <t>PPtWbZprTON</t>
-  </si>
-  <si>
-    <t>Initial CD4 Count/Baseline_HIV</t>
-  </si>
-  <si>
-    <t>uYuj2WtE6CC</t>
-  </si>
-  <si>
-    <t>Reason for discontinuing follow-up_HIV</t>
-  </si>
-  <si>
-    <t>D3J8HXLOr9G</t>
-  </si>
-  <si>
-    <t>Urea_HIV</t>
-  </si>
-  <si>
-    <t>ktLkcXwpMmD</t>
-  </si>
-  <si>
-    <t>ALK_HIV</t>
-  </si>
-  <si>
-    <t>CLFPgbDjeXy</t>
-  </si>
-  <si>
-    <t>Date of viral load_HIV</t>
-  </si>
-  <si>
-    <t>sGkWhnfbF12</t>
-  </si>
-  <si>
-    <t>Pulmonary TB_HIV</t>
-  </si>
-  <si>
-    <t>WD3EoXDwmCP</t>
-  </si>
-  <si>
-    <t>DLC - Lymphocytes_HIV</t>
-  </si>
-  <si>
-    <t>Ot96tNY7W1J</t>
-  </si>
-  <si>
-    <t>Adherence_HIV</t>
-  </si>
-  <si>
-    <t>umRjpDPF21c</t>
-  </si>
-  <si>
-    <t>Montoux_HIV</t>
-  </si>
-  <si>
-    <t>Oht4v2Dw2PY</t>
-  </si>
-  <si>
-    <t>DLC - Basophils_HIV</t>
-  </si>
-  <si>
-    <t>BjgOEzs7rPh</t>
-  </si>
-  <si>
-    <t>CD4_HIV</t>
-  </si>
-  <si>
-    <t>zGZaTPWzYF5</t>
-  </si>
-  <si>
-    <t>Second line preference_HIV</t>
-  </si>
-  <si>
-    <t>BtYiiNmIdXB</t>
-  </si>
-  <si>
-    <t>Treatment stop_HIV</t>
-  </si>
-  <si>
-    <t>XtqEe71VEkW</t>
-  </si>
-  <si>
-    <t>Regimen_HIV</t>
-  </si>
-  <si>
-    <t>glIM0WZHmsm</t>
-  </si>
-  <si>
-    <t>Psycho-social services_HIV</t>
-  </si>
-  <si>
-    <t>o05eLWT5B4n</t>
-  </si>
-  <si>
-    <t>ART treatment_HIV</t>
-  </si>
-  <si>
-    <t>Pv3eCDleeqw</t>
-  </si>
-  <si>
-    <t>ART side effects_HIV</t>
-  </si>
-  <si>
-    <t>pbB8qIMAYNt</t>
-  </si>
-  <si>
-    <t>ART treatment regimen_HIV</t>
-  </si>
-  <si>
-    <t>eWt48Y2xYKX</t>
-  </si>
-  <si>
-    <t>Other causes of death_HIV</t>
-  </si>
-  <si>
-    <t>PqUfFDBMbum</t>
-  </si>
-  <si>
-    <t>WHO Staging_HIV</t>
-  </si>
-  <si>
-    <t>aJllPZ8stuK</t>
-  </si>
-  <si>
-    <t>TLC_HIV</t>
-  </si>
-  <si>
-    <t>edRnaEK9y9t</t>
-  </si>
-  <si>
-    <t>TB_Others_HIV</t>
-  </si>
-  <si>
-    <t>TORsjR4SBLB</t>
-  </si>
-  <si>
-    <t>Viral load test result_HIV</t>
-  </si>
-  <si>
-    <t>ArI1132oaE0</t>
-  </si>
-  <si>
-    <t>ALT_HIV</t>
-  </si>
-  <si>
-    <t>eKTCRGsJMDv</t>
-  </si>
-  <si>
-    <t>Date of death_HIV</t>
-  </si>
-  <si>
-    <t>csnt49wylMR</t>
-  </si>
-  <si>
-    <t>DLC - Eosinophils_HIV</t>
-  </si>
-  <si>
-    <t>Mo2zycxKD7e</t>
-  </si>
-  <si>
-    <t>Cause of death_HIV</t>
-  </si>
-  <si>
-    <t>ZjVYx6QWtPo</t>
-  </si>
-  <si>
-    <t>Date of ART initiation_HIV</t>
-  </si>
-  <si>
-    <t>AFc4fmEpJbV</t>
-  </si>
-  <si>
-    <t>TB_Intensive Phase_HIV</t>
-  </si>
-  <si>
-    <t>H2ltgKrvhQd</t>
-  </si>
-  <si>
-    <t>Treatment Outcome_HIV</t>
-  </si>
-  <si>
-    <t>bczw3Zj3dLF</t>
-  </si>
-  <si>
-    <t>Date of CD4 count_HIV</t>
-  </si>
-  <si>
-    <t>LQf8HCQ24rQ</t>
-  </si>
-  <si>
-    <t>Creatinine_HIV</t>
-  </si>
-  <si>
-    <t>k94cMG7s4wi</t>
-  </si>
-  <si>
-    <t>Opportunistic infections_HIV</t>
-  </si>
-  <si>
-    <t>oP0weTmaBlH</t>
-  </si>
-  <si>
-    <t>Treatment_HIV</t>
-  </si>
-  <si>
-    <t>CKOqQYGFfRx</t>
-  </si>
-  <si>
-    <t>Date of confirmation by RCDC_HIV</t>
-  </si>
-  <si>
-    <t>f0rz1Oo1z0e</t>
-  </si>
-  <si>
-    <t>Sputum collection date of test_HIV</t>
-  </si>
-  <si>
-    <t>aGLGhqHIRIL</t>
-  </si>
-  <si>
-    <t>Outcome from TB screening_HIV</t>
-  </si>
-  <si>
-    <t>Cyi5Hy66i6y</t>
-  </si>
-  <si>
-    <t>TB_Continuation Phase_HIV</t>
-  </si>
-  <si>
-    <t>bbJGFMLIc3l</t>
-  </si>
-  <si>
-    <t>TB treatment initiation date _HIV</t>
-  </si>
-  <si>
-    <t>rLeL2g3WpLL</t>
-  </si>
-  <si>
-    <t>Patient pregnant_HIV</t>
-  </si>
-  <si>
-    <t>RYXVmlXoFb6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks_STD counselling </t>
-  </si>
-  <si>
-    <t>cSGyU00iUQG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV confirmation test_STD counselling </t>
-  </si>
-  <si>
-    <t>QsRKMenJqJi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referred_STD counselling </t>
-  </si>
-  <si>
-    <t>V4cQDM60NeH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR Test result_STD counselling </t>
-  </si>
-  <si>
-    <t>wBEhkZRPzIJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPHA Test available or not_STD counselling </t>
-  </si>
-  <si>
-    <t>wFWABCEqVqA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reason for Test_STD counselling </t>
-  </si>
-  <si>
-    <t>MCIRoOd1G8e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-test_STD counselling </t>
-  </si>
-  <si>
-    <t>SrCBdeAIUCh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPHA treatment date_STD counselling </t>
-  </si>
-  <si>
-    <t>ya6U7eZAOtS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test result - TPHA_STD counselling </t>
-  </si>
-  <si>
-    <t>lQTk3fr0PL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPHA treatment _STD counselling </t>
-  </si>
-  <si>
-    <t>cCz0H5vtcZJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test result - HIV_STD counselling </t>
-  </si>
-  <si>
-    <t>ENbrrtWt9o2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test result - HCV_STD counselling </t>
-  </si>
-  <si>
-    <t>Md2OsfYtFgn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Test Counseling_STD counselling </t>
-  </si>
-  <si>
-    <t>w75UVUUl8Az</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test result - HBsAg_STD counselling </t>
-  </si>
-  <si>
-    <t>uyRAjDboSe6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (Reason for Testing)_STD counselling </t>
-  </si>
-  <si>
     <t>shortName</t>
   </si>
   <si>
-    <t>Weight (in kgs)</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>Other (HIV Co-infection)</t>
-  </si>
-  <si>
-    <t>CPT Prophylaxis date</t>
-  </si>
-  <si>
-    <t>Was ART treatment received before?</t>
-  </si>
-  <si>
-    <t>Sputum collection</t>
-  </si>
-  <si>
-    <t>DLC - Monocytes</t>
-  </si>
-  <si>
-    <t>Date of Diagnosis</t>
-  </si>
-  <si>
-    <t>Is ART initiated</t>
-  </si>
-  <si>
-    <t>Treatment details</t>
-  </si>
-  <si>
-    <t>GenExpert date</t>
-  </si>
-  <si>
-    <t>AST</t>
-  </si>
-  <si>
-    <t>Haemoglobin</t>
-  </si>
-  <si>
-    <t>Substitution</t>
-  </si>
-  <si>
-    <t>Co-infection</t>
-  </si>
-  <si>
-    <t>DLC - Neutrophils</t>
-  </si>
-  <si>
-    <t>Screened for TB</t>
-  </si>
-  <si>
-    <t>Place of Diagnosis</t>
-  </si>
-  <si>
-    <t>IPT Prophylaxis initiation date</t>
-  </si>
-  <si>
-    <t>Extrapulmonary TB</t>
-  </si>
-  <si>
-    <t>Immune failure viral load not suppressed</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>Sodium</t>
-  </si>
-  <si>
-    <t>Viral load (baseline)</t>
-  </si>
-  <si>
-    <t>Other psycho social services</t>
-  </si>
-  <si>
-    <t>Art not initiated</t>
-  </si>
-  <si>
-    <t>Past history of TB</t>
-  </si>
-  <si>
-    <t>GenExpert</t>
-  </si>
-  <si>
-    <t>Montoux date</t>
-  </si>
-  <si>
-    <t>Type of co-infection</t>
-  </si>
-  <si>
-    <t>Status of treatment</t>
-  </si>
-  <si>
-    <t>Initial CD4 Count/Baseline</t>
-  </si>
-  <si>
-    <t>Reason for discontinuing follow-up</t>
-  </si>
-  <si>
-    <t>Urea</t>
-  </si>
-  <si>
-    <t>ALK</t>
-  </si>
-  <si>
-    <t>Date of viral load</t>
-  </si>
-  <si>
-    <t>Pulmonary TB</t>
-  </si>
-  <si>
-    <t>DLC - Lymphocytes</t>
-  </si>
-  <si>
-    <t>Adherence</t>
-  </si>
-  <si>
-    <t>Montoux</t>
-  </si>
-  <si>
-    <t>DLC - Basophils</t>
-  </si>
-  <si>
-    <t>CD4</t>
-  </si>
-  <si>
-    <t>Second line preference</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>Regimen</t>
-  </si>
-  <si>
-    <t>Psycho-social services</t>
-  </si>
-  <si>
-    <t>ART treatment</t>
-  </si>
-  <si>
-    <t>ART side effects</t>
-  </si>
-  <si>
-    <t>ART treatment regimen</t>
-  </si>
-  <si>
-    <t>Other causes of death</t>
-  </si>
-  <si>
-    <t>WHO Staging</t>
-  </si>
-  <si>
-    <t>TLC</t>
-  </si>
-  <si>
-    <t>TB_Others</t>
-  </si>
-  <si>
-    <t>Viral load test result</t>
-  </si>
-  <si>
-    <t>ALT</t>
-  </si>
-  <si>
-    <t>Date of death</t>
-  </si>
-  <si>
-    <t>DLC - Eosinophils</t>
-  </si>
-  <si>
-    <t>Cause of death</t>
-  </si>
-  <si>
-    <t>Date of ART initiation</t>
-  </si>
-  <si>
-    <t>Intensive Phase</t>
-  </si>
-  <si>
-    <t>Treatment Outcome</t>
-  </si>
-  <si>
-    <t>Date of CD4 count</t>
-  </si>
-  <si>
-    <t>Creatinine</t>
-  </si>
-  <si>
-    <t>Opportunistic infections</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Date of confirmation by RCDC</t>
-  </si>
-  <si>
-    <t>Sputum collection date</t>
-  </si>
-  <si>
-    <t>Outcome from TB screening</t>
-  </si>
-  <si>
-    <t>Continuation Phase</t>
-  </si>
-  <si>
-    <t>TB treatment initiation date</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>HIV confirmation test_HCT</t>
-  </si>
-  <si>
-    <t>Referred_HCT</t>
-  </si>
-  <si>
-    <t>RPR Test result</t>
-  </si>
-  <si>
-    <t>TPHA Test available or not</t>
-  </si>
-  <si>
-    <t>Reason for Test_HCT</t>
-  </si>
-  <si>
-    <t>Pre-test_HCT</t>
-  </si>
-  <si>
-    <t>TPHA treatment date</t>
-  </si>
-  <si>
-    <t>Test result - TPHA_HCT</t>
-  </si>
-  <si>
-    <t>TPHA treatment</t>
-  </si>
-  <si>
-    <t>Test result - HIV_HCT</t>
-  </si>
-  <si>
-    <t>Test result - HCV_HCT</t>
-  </si>
-  <si>
-    <t>Post Test Counseling_HCT</t>
-  </si>
-  <si>
-    <t>Test result - HBsAg_HCT</t>
-  </si>
-  <si>
-    <t>Other (Reason for Testing)</t>
+    <t>T4sd77FTesI</t>
+  </si>
+  <si>
+    <t>Basic science - Research studies initiated_GLP</t>
+  </si>
+  <si>
+    <t>LLf2TlSczM5</t>
+  </si>
+  <si>
+    <t>Capsules number-Adult ENL1 Case_MDT</t>
+  </si>
+  <si>
+    <t>s4JEZsDU1Vx</t>
+  </si>
+  <si>
+    <t>Clinical - Research studies initiated_GLP</t>
+  </si>
+  <si>
+    <t>MsOWcEfExop</t>
+  </si>
+  <si>
+    <t>Mg per Capsule-Adult ENL1 Case_MDT</t>
+  </si>
+  <si>
+    <t>myUKWpW5NOS</t>
+  </si>
+  <si>
+    <t>Mg per Capsule-Child ENL1 Case_MDT</t>
+  </si>
+  <si>
+    <t>wUBT6DCqmYn</t>
+  </si>
+  <si>
+    <t>Programme management - Research studies initiated_GLP</t>
+  </si>
+  <si>
+    <t>Programme management - Research studies_GLP</t>
+  </si>
+  <si>
+    <t>Xzuid5sSSg3</t>
+  </si>
+  <si>
+    <t>Active case contact examination- Cases detected_GLP</t>
+  </si>
+  <si>
+    <t>Active case contact examination detected _GLP</t>
+  </si>
+  <si>
+    <t>qHIGkVqSItK</t>
+  </si>
+  <si>
+    <t>Active case contact examination - People estimated_GLP</t>
+  </si>
+  <si>
+    <t>Active case contact examination estimated _GLP</t>
+  </si>
+  <si>
+    <t>FNTigvSTOVL</t>
+  </si>
+  <si>
+    <t>Active case detection campaigns - People examined_GLP</t>
+  </si>
+  <si>
+    <t>Active case detection campaigns examined  -_GLP</t>
+  </si>
+  <si>
+    <t>uhtjTobhtHO</t>
+  </si>
+  <si>
+    <t>Active case detection campaigns - Cases detected_GLP</t>
+  </si>
+  <si>
+    <t>Active case detection campaigns detected_GLP</t>
+  </si>
+  <si>
+    <t>g04IY5svOKO</t>
+  </si>
+  <si>
+    <t>Active case detection campaigns - People estimated_GLP</t>
+  </si>
+  <si>
+    <t>Active case detection campaigns estimated_GLP</t>
+  </si>
+  <si>
+    <t>GuZ5MKrfrBp</t>
+  </si>
+  <si>
+    <t>Active case contact examination - People examined_GLP</t>
+  </si>
+  <si>
+    <t>Active case contact examination - examined_GLP</t>
+  </si>
+  <si>
+    <t>fWOu6CXWmYj</t>
+  </si>
+  <si>
+    <t>Active laws/ allow discrimination against person affected by leprosy_GLP</t>
+  </si>
+  <si>
+    <t>Active laws/ allow discrimination_GLP</t>
+  </si>
+  <si>
+    <t>zGG56NwXhKq</t>
+  </si>
+  <si>
+    <t>Additional - Clofazimine_MDT</t>
+  </si>
+  <si>
+    <t>nIXENXSFNeC</t>
+  </si>
+  <si>
+    <t>Additional - Information for timely delivery_MDT</t>
+  </si>
+  <si>
+    <t>uh4OuRHKLSI</t>
+  </si>
+  <si>
+    <t>Additional - MB cases_MDT</t>
+  </si>
+  <si>
+    <t>CP6BlnHg2aX</t>
+  </si>
+  <si>
+    <t>Additional - MB cases as per latest data_MDT</t>
+  </si>
+  <si>
+    <t>UpBe514B1UC</t>
+  </si>
+  <si>
+    <t>Additional - MB drugs_MDT</t>
+  </si>
+  <si>
+    <t>k0CtgzRCB6s</t>
+  </si>
+  <si>
+    <t>Additional - PB cases_MDT</t>
+  </si>
+  <si>
+    <t>qDqavrYgNYy</t>
+  </si>
+  <si>
+    <t>Additional - PB cases as per latest data_MDT</t>
+  </si>
+  <si>
+    <t>xmb58L9sEMs</t>
+  </si>
+  <si>
+    <t>Additional - PB drugs_MDT</t>
+  </si>
+  <si>
+    <t>ZFX8vhyxN8c</t>
+  </si>
+  <si>
+    <t>Additional - Remark - MDT request_MDT</t>
+  </si>
+  <si>
+    <t>tGpyYDeDvMb</t>
+  </si>
+  <si>
+    <t>Additional - Stock - Central - Clofazimine_MDT</t>
+  </si>
+  <si>
+    <t>fdWpn7ztkxb</t>
+  </si>
+  <si>
+    <t>Additional - Stock - District - Clofazimine_MDT</t>
+  </si>
+  <si>
+    <t>jjs1xW3SkTJ</t>
+  </si>
+  <si>
+    <t>Additional - Stock - Regional - Clofazimine_MDT</t>
+  </si>
+  <si>
+    <t>n3dRBkHUIdP</t>
+  </si>
+  <si>
+    <t>Additional - Stock request - MB - 3 drug blister_MDT</t>
+  </si>
+  <si>
+    <t>Additional - Stock request - MB - 3 drug _MDT</t>
+  </si>
+  <si>
+    <t>F7IBrQPl2Aa</t>
+  </si>
+  <si>
+    <t>Additional - Stock request - PB - 2 drug blister_MDT</t>
+  </si>
+  <si>
+    <t>Additional - Stock request - PB - 2 drug_MDT</t>
+  </si>
+  <si>
+    <t>jNsptgEvQnD</t>
+  </si>
+  <si>
+    <t>Additional - Stock request - PB - 3 drug blister_MDT</t>
+  </si>
+  <si>
+    <t>Additional - Stock request - PB - 3 drug_MDT</t>
+  </si>
+  <si>
+    <t>uwRk8p5fp1S</t>
+  </si>
+  <si>
+    <t>Additional - Request year_MDT</t>
+  </si>
+  <si>
+    <t>KKNyMmqR1un</t>
+  </si>
+  <si>
+    <t>Adverse drug reaction_GLP</t>
+  </si>
+  <si>
+    <t>XgJjpxWFkMa</t>
+  </si>
+  <si>
+    <t>Airway bill_MDT</t>
+  </si>
+  <si>
+    <t>AkdAjKTjvN0</t>
+  </si>
+  <si>
+    <t>Request year_MDT</t>
+  </si>
+  <si>
+    <t>nwBJr354ASE</t>
+  </si>
+  <si>
+    <t>Balance reported in last request - Clofazimine 100 mg_MDT</t>
+  </si>
+  <si>
+    <t>Balance reported in last request -100 mg_MDT</t>
+  </si>
+  <si>
+    <t>fXgaaE8JtYb</t>
+  </si>
+  <si>
+    <t>Balance reported in last request - Clofazimine 50 mg_MDT</t>
+  </si>
+  <si>
+    <t>Balance reported in last request - 50 mg_MDT</t>
+  </si>
+  <si>
+    <t>VVBrsKiEqdh</t>
+  </si>
+  <si>
+    <t>Baseline - MB cases on treatment (2 yrs before)_GLP</t>
+  </si>
+  <si>
+    <t>Baseline - MB cases on treatment (2 yrs)_GLP</t>
+  </si>
+  <si>
+    <t>PFNL3BPu3A6</t>
+  </si>
+  <si>
+    <t>Baseline - PB cases on treatment (1 yr before)_GLP</t>
+  </si>
+  <si>
+    <t>Baseline - PB cases on treatment (yr before)_GLP</t>
+  </si>
+  <si>
+    <t>qFVTcQTMMPU</t>
+  </si>
+  <si>
+    <t>Capsules number-Adult ENL2 Case_MDT</t>
+  </si>
+  <si>
+    <t>HGH3WNFPvbO</t>
+  </si>
+  <si>
+    <t>Capsules number-Adult ENL3 Case_MDT</t>
+  </si>
+  <si>
+    <t>v96uy8Rgaza</t>
+  </si>
+  <si>
+    <t>Capsules number-Child ENL1 Case_MDT</t>
+  </si>
+  <si>
+    <t>CXcgLdjHfSK</t>
+  </si>
+  <si>
+    <t>Capsules number-Child ENL2 Case_MDT</t>
+  </si>
+  <si>
+    <t>bBrJdpuuKga</t>
+  </si>
+  <si>
+    <t>Capsules number-Child ENL3 Case_MDT</t>
+  </si>
+  <si>
+    <t>LL3PpzJHqJZ</t>
+  </si>
+  <si>
+    <t>Cases registered for treatment _GHO</t>
+  </si>
+  <si>
+    <t>kNMFmlDeMVY</t>
+  </si>
+  <si>
+    <t>Certificate of analysis_MDT</t>
+  </si>
+  <si>
+    <t>wMad2cZCHR9</t>
+  </si>
+  <si>
+    <t>Certificate of Origin_MDT</t>
+  </si>
+  <si>
+    <t>EnQPW5xZDPX</t>
+  </si>
+  <si>
+    <t>Child Population_GLP</t>
+  </si>
+  <si>
+    <t>OKoXSGNOHTZ</t>
+  </si>
+  <si>
+    <t>Child Population_GHO</t>
+  </si>
+  <si>
+    <t>tt8SqZ6SXRy</t>
+  </si>
+  <si>
+    <t>Clofazimine_GLP</t>
+  </si>
+  <si>
+    <t>S2tz1AodEkB</t>
+  </si>
+  <si>
+    <t>Clofazimine - Stock check date_MDT</t>
+  </si>
+  <si>
+    <t>q39GEhcS3Ow</t>
+  </si>
+  <si>
+    <t>Clofazimine 100 mg expiring 1_MDT</t>
+  </si>
+  <si>
+    <t>IxPmSMANNm5</t>
+  </si>
+  <si>
+    <t>Clofazimine 100 mg expiring 2_MDT</t>
+  </si>
+  <si>
+    <t>vNd51A69ImF</t>
+  </si>
+  <si>
+    <t>Clofazimine 100 mg expiring 3_MDT</t>
+  </si>
+  <si>
+    <t>o6tvTOyLeej</t>
+  </si>
+  <si>
+    <t>Clofazimine 100 mg expiring 1 - Batch no_MDT</t>
+  </si>
+  <si>
+    <t>ybXDTBYnfiM</t>
+  </si>
+  <si>
+    <t>Clofazimine 100 mg expiring 1 - Expiry month_MDT</t>
+  </si>
+  <si>
+    <t>clfUaMm7cLp</t>
+  </si>
+  <si>
+    <t>Clofazimine 100 mg expiring 2 - Batch no_MDT</t>
+  </si>
+  <si>
+    <t>OSXJR4S4fbJ</t>
+  </si>
+  <si>
+    <t>Clofazimine 100 mg expiring 2 - Expiry month_MDT</t>
+  </si>
+  <si>
+    <t>exo6es8tr8m</t>
+  </si>
+  <si>
+    <t>Clofazimine 100 mg expiring 3 - Batch no_MDT</t>
+  </si>
+  <si>
+    <t>ceFeUWowt1R</t>
+  </si>
+  <si>
+    <t>Clofazimine 100 mg expiring 3 - Expiry month_MDT</t>
+  </si>
+  <si>
+    <t>p5PlBUMYVKU</t>
+  </si>
+  <si>
+    <t>Clofazimine 50 mg expiring 1_MDT</t>
+  </si>
+  <si>
+    <t>hJxZf3V3xfo</t>
+  </si>
+  <si>
+    <t>Clofazimine 50 mg expiring 2_MDT</t>
+  </si>
+  <si>
+    <t>wqg3maphCzW</t>
+  </si>
+  <si>
+    <t>Clofazimine 50 mg expiring 3_MDT</t>
+  </si>
+  <si>
+    <t>ZfdVIZdh8tg</t>
+  </si>
+  <si>
+    <t>Clofazimine 50 mg expiring 1 - Batch no_MDT</t>
+  </si>
+  <si>
+    <t>qHjGOCDKpgF</t>
+  </si>
+  <si>
+    <t>Clofazimine 50 mg expiring 1 - Expiry month_MDT</t>
+  </si>
+  <si>
+    <t>QiIictAU4wk</t>
+  </si>
+  <si>
+    <t>Clofazimine 50 mg expiring 2 - Batch no_MDT</t>
+  </si>
+  <si>
+    <t>ZFB8KvE0Aoc</t>
+  </si>
+  <si>
+    <t>Clofazimine 50 mg expiring 2 - Expiry month_MDT</t>
+  </si>
+  <si>
+    <t>lP0WqH5j6ny</t>
+  </si>
+  <si>
+    <t>Clofazimine 50 mg expiring 3 - Batch no_MDT</t>
+  </si>
+  <si>
+    <t>ufWAnEfiQPt</t>
+  </si>
+  <si>
+    <t>Clofazimine 50 mg expiring 3 - Expiry month_MDT</t>
+  </si>
+  <si>
+    <t>PDIevRUGZwd</t>
+  </si>
+  <si>
+    <t>Clofazimine not expiring within 12 months_MDT</t>
+  </si>
+  <si>
+    <t>i7M1UOgepUE</t>
+  </si>
+  <si>
+    <t>Clofazimine supply not required_MDT</t>
+  </si>
+  <si>
+    <t>bZewOgIZ1iS</t>
+  </si>
+  <si>
+    <t>Consignee Bldg. c/o Street_MDT</t>
+  </si>
+  <si>
+    <t>EfGAUBuUQZm</t>
+  </si>
+  <si>
+    <t>Consignee City_MDT</t>
+  </si>
+  <si>
+    <t>oe6DoXoAZek</t>
+  </si>
+  <si>
+    <t>Consignee Country_MDT</t>
+  </si>
+  <si>
+    <t>QjHVCfm4Rqh</t>
+  </si>
+  <si>
+    <t>Consignee Department/Unit_MDT</t>
+  </si>
+  <si>
+    <t>GE15UeiiWEA</t>
+  </si>
+  <si>
+    <t>Consignee E-mail_MDT</t>
+  </si>
+  <si>
+    <t>XuHmc8GPdnx</t>
+  </si>
+  <si>
+    <t>Consignee Full Name and Title_MDT</t>
+  </si>
+  <si>
+    <t>V8VZ15KmbQT</t>
+  </si>
+  <si>
+    <t>Consignee Function_MDT</t>
+  </si>
+  <si>
+    <t>WMVcCgywuKC</t>
+  </si>
+  <si>
+    <t>Consignee Organization_MDT</t>
+  </si>
+  <si>
+    <t>cg67QCIMbGu</t>
+  </si>
+  <si>
+    <t>Consignee P.O. Box_MDT</t>
+  </si>
+  <si>
+    <t>JUxuWl14tSi</t>
+  </si>
+  <si>
+    <t>Consignee Phone_MDT</t>
+  </si>
+  <si>
+    <t>Qp8L1n8iHg4</t>
+  </si>
+  <si>
+    <t>Consignee Postal Code_MDT</t>
+  </si>
+  <si>
+    <t>cPVhsfEclQw</t>
+  </si>
+  <si>
+    <t>Criteria - High endemic districts for leprosy_GLP</t>
+  </si>
+  <si>
+    <t>noO8UsaesIG</t>
+  </si>
+  <si>
+    <t>Data policy statement_MDT</t>
+  </si>
+  <si>
+    <t>wOpvIxNbfMl</t>
+  </si>
+  <si>
+    <t>Date - Cases under treatment_MDT</t>
+  </si>
+  <si>
+    <t>IuD43urX0xh</t>
+  </si>
+  <si>
+    <t>Date - Supply information_MDT</t>
+  </si>
+  <si>
+    <t>kBUpO96e5eT</t>
+  </si>
+  <si>
+    <t>Data entry date _MDT</t>
+  </si>
+  <si>
+    <t>kISRp1zDJ1o</t>
+  </si>
+  <si>
+    <t>Discrimination instances reported_GLP</t>
+  </si>
+  <si>
+    <t>A99tfPa4SAW</t>
+  </si>
+  <si>
+    <t>Drug registration_MDT</t>
+  </si>
+  <si>
+    <t>PH37z6JNzdF</t>
+  </si>
+  <si>
+    <t>Duration (weeks)-Adult ENL1 Case_MDT</t>
+  </si>
+  <si>
+    <t>ohrpSSCE1Cg</t>
+  </si>
+  <si>
+    <t>Duration (weeks)-Adult ENL2 Case_MDT</t>
+  </si>
+  <si>
+    <t>JYh9rN0SwOD</t>
+  </si>
+  <si>
+    <t>Duration (weeks)-Adult ENL3 Case_MDT</t>
+  </si>
+  <si>
+    <t>LgUgSi7C2wv</t>
+  </si>
+  <si>
+    <t>Duration (weeks)-Child ENL1 Case_MDT</t>
+  </si>
+  <si>
+    <t>JDWZY5dsBnU</t>
+  </si>
+  <si>
+    <t>Duration (weeks)-Child ENL2 Case_MDT</t>
+  </si>
+  <si>
+    <t>o4BKevMji54</t>
+  </si>
+  <si>
+    <t>Duration (weeks)-Child ENL3 Case_MDT</t>
+  </si>
+  <si>
+    <t>YH0jPFNnEG1</t>
+  </si>
+  <si>
+    <t>Electronic signature_MDT</t>
+  </si>
+  <si>
+    <t>ayiTrBnrcql</t>
+  </si>
+  <si>
+    <t>ENL cases under treatment_MDT</t>
+  </si>
+  <si>
+    <t>BPGKraPvRmm</t>
+  </si>
+  <si>
+    <t>ENL reaction cases - Previous year 1_MDT</t>
+  </si>
+  <si>
+    <t>Y5uyS9hcgMR</t>
+  </si>
+  <si>
+    <t>ENL reaction cases - Previous year 2_MDT</t>
+  </si>
+  <si>
+    <t>a2sNnNRUklZ</t>
+  </si>
+  <si>
+    <t>ENL reaction cases treated - Clofazimine - Previous year 1_MDT</t>
+  </si>
+  <si>
+    <t>ENL reaction cases treated - Previous year 1_MDT</t>
+  </si>
+  <si>
+    <t>MpDC5e8CQCt</t>
+  </si>
+  <si>
+    <t>ENL reaction cases treated - Clofazimine - Previous year 2_MDT</t>
+  </si>
+  <si>
+    <t>ENL reaction cases treated - Previous year 2_MDT</t>
+  </si>
+  <si>
+    <t>sFlxEtsKHIg</t>
+  </si>
+  <si>
+    <t>Expired MB central stock_MDT</t>
+  </si>
+  <si>
+    <t>O63csriQhTc</t>
+  </si>
+  <si>
+    <t>Expired MB district stock_MDT</t>
+  </si>
+  <si>
+    <t>vZBiAxll0Xz</t>
+  </si>
+  <si>
+    <t>Expired MB regional stock_MDT</t>
+  </si>
+  <si>
+    <t>czJA49BKyIL</t>
+  </si>
+  <si>
+    <t>Expired PB central stock_MDT</t>
+  </si>
+  <si>
+    <t>wuqnloyahv3</t>
+  </si>
+  <si>
+    <t>Expired PB district stock_MDT</t>
+  </si>
+  <si>
+    <t>m3BUA71vyi9</t>
+  </si>
+  <si>
+    <t>Expired PB regional stock_MDT</t>
+  </si>
+  <si>
+    <t>vQy7iC2LzSL</t>
+  </si>
+  <si>
+    <t>Final and consignee details same_MDT</t>
+  </si>
+  <si>
+    <t>OvPs54OWGB7</t>
+  </si>
+  <si>
+    <t>Final Recipient 1 - request related _MDT</t>
+  </si>
+  <si>
+    <t>eBahnOWK4ug</t>
+  </si>
+  <si>
+    <t>Final Recipient 1 - supply related _MDT</t>
+  </si>
+  <si>
+    <t>SNIbG74whru</t>
+  </si>
+  <si>
+    <t>Final Recipient 2 - request related _MDT</t>
+  </si>
+  <si>
+    <t>kGgmn4bpBZG</t>
+  </si>
+  <si>
+    <t>Final Recipient 2 - supply related _MDT</t>
+  </si>
+  <si>
+    <t>H3QRtOYYEPZ</t>
+  </si>
+  <si>
+    <t>Forecast of ENL cases_MDT</t>
+  </si>
+  <si>
+    <t>a9KakM34uAz</t>
+  </si>
+  <si>
+    <t>Forecast of new MB cases_MDT</t>
+  </si>
+  <si>
+    <t>ydOFUDqFsrA</t>
+  </si>
+  <si>
+    <t>Forecast of new PB cases_MDT</t>
+  </si>
+  <si>
+    <t>qE3qkU7PJUY</t>
+  </si>
+  <si>
+    <t>Forecast of new Unclassified  cases_MDT</t>
+  </si>
+  <si>
+    <t>nbDlMYKljTK</t>
+  </si>
+  <si>
+    <t>Foreign Born Leprosy Cases_GLP</t>
+  </si>
+  <si>
+    <t>NlyC1FwJWy9</t>
+  </si>
+  <si>
+    <t>General Survey - Cases detected_GLP</t>
+  </si>
+  <si>
+    <t>v7CDzOUjTE6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Survey - People estimated_GLP </t>
+  </si>
+  <si>
+    <t>ztfAqeY7ruz</t>
+  </si>
+  <si>
+    <t>General Survey - People examined_GLP</t>
+  </si>
+  <si>
+    <t>GuSjoY2Nfkl</t>
+  </si>
+  <si>
+    <t>GMP Certificate_MDT</t>
+  </si>
+  <si>
+    <t>gGtLl2LFrfD</t>
+  </si>
+  <si>
+    <t>Green light request_MDT</t>
+  </si>
+  <si>
+    <t>JeewVif7Qzp</t>
+  </si>
+  <si>
+    <t>Health facilities providing leprosy services_GLP</t>
+  </si>
+  <si>
+    <t>pLZpRkMZWLH</t>
+  </si>
+  <si>
+    <t>Health facilities with trained counselling person_GLP</t>
+  </si>
+  <si>
+    <t>Health facilities with trained counselling _GLP</t>
+  </si>
+  <si>
+    <t>bJiRxBdlM3F</t>
+  </si>
+  <si>
+    <t>High burden district_GLP</t>
+  </si>
+  <si>
+    <t>LhTFyGyFie6</t>
+  </si>
+  <si>
+    <t>Invoice_MDT</t>
+  </si>
+  <si>
+    <t>NXvBmgzF1tS</t>
+  </si>
+  <si>
+    <t>Leprosy affected persons in microplanning - programmes_GLP</t>
+  </si>
+  <si>
+    <t>Leprosy affected persons in programmes_GLP</t>
+  </si>
+  <si>
+    <t>MeDkAw5qy9L</t>
+  </si>
+  <si>
+    <t>Leprosy affected persons in microplanning - services_GLP</t>
+  </si>
+  <si>
+    <t>Leprosy affected persons in microplanning_GLP</t>
+  </si>
+  <si>
+    <t>SmZe6komFZU</t>
+  </si>
+  <si>
+    <t>Leprosy cases - Children - Subnational_GLP</t>
+  </si>
+  <si>
+    <t>xdbnQxRVTBq</t>
+  </si>
+  <si>
+    <t>Leprosy Cases - Female_GLP</t>
+  </si>
+  <si>
+    <t>tfeQyWwloqn</t>
+  </si>
+  <si>
+    <t>Leprosy cases - Female - Subnational_GLP</t>
+  </si>
+  <si>
+    <t>xl4EXfRMBrK</t>
+  </si>
+  <si>
+    <t>Leprosy Cases - Grade 2 Disability_GLP</t>
+  </si>
+  <si>
+    <t>coycFHeZ257</t>
+  </si>
+  <si>
+    <t>Leprosy Cases - Unknown_GLP</t>
+  </si>
+  <si>
+    <t>oVOZ3nwK0VU</t>
+  </si>
+  <si>
+    <t>Leprosy G2D cases - Subnational_GLP</t>
+  </si>
+  <si>
+    <t>a89lC7KBcAC</t>
+  </si>
+  <si>
+    <t>Letter of Donation_MDT</t>
+  </si>
+  <si>
+    <t>bjLIfOy4KuR</t>
+  </si>
+  <si>
+    <t>MB - lost to follow-up - 18 months_GLP</t>
+  </si>
+  <si>
+    <t>whSNEteJUqY</t>
+  </si>
+  <si>
+    <t>MB - Patients assessed for disability grading at treatment completion_GLP</t>
+  </si>
+  <si>
+    <t>MB - Patients assessed for disability grading_GLP</t>
+  </si>
+  <si>
+    <t>KABaJ7eFDLb</t>
+  </si>
+  <si>
+    <t>MB - Patients treated for Type 1 (ENL) reactions_GLP</t>
+  </si>
+  <si>
+    <t>MB - Patients treated for Type 1 reactions_GLP</t>
+  </si>
+  <si>
+    <t>gUQ9nYmXlsB</t>
+  </si>
+  <si>
+    <t>MB - Patients treated for Type 2 (ENL) reactions_GLP</t>
+  </si>
+  <si>
+    <t>MB - Patients treated for Type 2 reactions_GLP</t>
+  </si>
+  <si>
+    <t>lhSRNgfsxYC</t>
+  </si>
+  <si>
+    <t>MB - Retreatment Cases - Others_GLP</t>
+  </si>
+  <si>
+    <t>VBEhMPsLu53</t>
+  </si>
+  <si>
+    <t>MB - Retreatment Cases - Relapses_GLP</t>
+  </si>
+  <si>
+    <t>eeaLkLtjut9</t>
+  </si>
+  <si>
+    <t>MB blisters 1 expiring - Batch no_MDT</t>
+  </si>
+  <si>
+    <t>AuMn0AuRd5M</t>
+  </si>
+  <si>
+    <t>MB blisters 1 expiring - Quantity_MDT</t>
+  </si>
+  <si>
+    <t>thrZWpq5mSA</t>
+  </si>
+  <si>
+    <t>MB blisters 1 expiring - Expiry month_MDT</t>
+  </si>
+  <si>
+    <t>H06sRAqixau</t>
+  </si>
+  <si>
+    <t>MB blisters 2 expiring - Batch no_MDT</t>
+  </si>
+  <si>
+    <t>dReX5r6vqus</t>
+  </si>
+  <si>
+    <t>MB blisters 2 expiring - Expiry month_MDT</t>
+  </si>
+  <si>
+    <t>yCkgkBeUz51</t>
+  </si>
+  <si>
+    <t>MB blisters 2 expiring - Quantity_MDT</t>
+  </si>
+  <si>
+    <t>B5QFlzW2lC6</t>
+  </si>
+  <si>
+    <t>MB blisters 3 expiring - Batch no_MDT</t>
+  </si>
+  <si>
+    <t>YSqRECFDDnp</t>
+  </si>
+  <si>
+    <t>MB blisters 3 expiring - Expiry month_MDT</t>
+  </si>
+  <si>
+    <t>sg19t9h2zWz</t>
+  </si>
+  <si>
+    <t>MB blisters 3 expiring - Quantity_MDT</t>
+  </si>
+  <si>
+    <t>fZ1XdYLx9BJ</t>
+  </si>
+  <si>
+    <t>MB blisters expiring_MDT</t>
+  </si>
+  <si>
+    <t>evXyDr6c7eu</t>
+  </si>
+  <si>
+    <t>MB Cases_GLP</t>
+  </si>
+  <si>
+    <t>MiHLzmsVFPf</t>
+  </si>
+  <si>
+    <t>MB cases - child - age wise_GLP</t>
+  </si>
+  <si>
+    <t>TCJv5BNVYCw</t>
+  </si>
+  <si>
+    <t>MB Cases - Treatment Completed in 18 months_GLP</t>
+  </si>
+  <si>
+    <t>lX0xOxS9eLV</t>
+  </si>
+  <si>
+    <t>MB cases - Worsening of disability grading_GLP</t>
+  </si>
+  <si>
+    <t>bLR7YvL1f5O</t>
+  </si>
+  <si>
+    <t>MB Cases on Treatment_GLP</t>
+  </si>
+  <si>
+    <t>L7hh1YhgC9r</t>
+  </si>
+  <si>
+    <t>MB central stock_MDT</t>
+  </si>
+  <si>
+    <t>tp6QUfVDv5N</t>
+  </si>
+  <si>
+    <t>MB country supply_MDT</t>
+  </si>
+  <si>
+    <t>hUpNI5ioZ63</t>
+  </si>
+  <si>
+    <t>MB district stock_MDT</t>
+  </si>
+  <si>
+    <t>PR6ZIdehgIm</t>
+  </si>
+  <si>
+    <t>MB new case detected-MDT</t>
+  </si>
+  <si>
+    <t>G7tRDnxDLu1</t>
+  </si>
+  <si>
+    <t>MB regional stock_MDT</t>
+  </si>
+  <si>
+    <t>HIkBE79uhuU</t>
+  </si>
+  <si>
+    <t>MB Treatment Protocol - duration_MDT</t>
+  </si>
+  <si>
+    <t>QrYO8J173dQ</t>
+  </si>
+  <si>
+    <t>MB Treatment Protocol - Regimen_MDT</t>
+  </si>
+  <si>
+    <t>TF9sT17yjpY</t>
+  </si>
+  <si>
+    <t>MB/PB blisters not expiring within 12 months_MDT</t>
+  </si>
+  <si>
+    <t>LWOkfQ544rZ</t>
+  </si>
+  <si>
+    <t>MB/PB expired during past calendar year_MDT</t>
+  </si>
+  <si>
+    <t>WUnzHYnGvua</t>
+  </si>
+  <si>
+    <t>Request Year_MDT</t>
+  </si>
+  <si>
+    <t>OzJmG6vi6BS</t>
+  </si>
+  <si>
+    <t>Medicine_MDT</t>
+  </si>
+  <si>
+    <t>dnmQPbcrpWJ</t>
+  </si>
+  <si>
+    <t>Mg per Capsule-Adult ENL3 Case_MDT</t>
+  </si>
+  <si>
+    <t>WsGj0aGePxA</t>
+  </si>
+  <si>
+    <t>Mg per Capsule-Adult ENL2 Case_MDT</t>
+  </si>
+  <si>
+    <t>iaR0wjCprGK</t>
+  </si>
+  <si>
+    <t>Mg per Capsule-Child ENL2 Case_MDT</t>
+  </si>
+  <si>
+    <t>DzBHIm9gr5n</t>
+  </si>
+  <si>
+    <t>Mg per Capsule-Child ENL3 Case_MDT</t>
+  </si>
+  <si>
+    <t>kKoiaRvujGL</t>
+  </si>
+  <si>
+    <t>National guidelines at health facilities - Availability_GLP</t>
+  </si>
+  <si>
+    <t>National guidelines at health facilities_GLP</t>
+  </si>
+  <si>
+    <t>liZaznYiWwp</t>
+  </si>
+  <si>
+    <t>New cases detected _GHO</t>
+  </si>
+  <si>
+    <t>CAwisvSGkaj</t>
+  </si>
+  <si>
+    <t>New cases resistant to drug_GLP</t>
+  </si>
+  <si>
+    <t>MJGjCnCK8qJ</t>
+  </si>
+  <si>
+    <t>New cases tested for drug resistance_GLP</t>
+  </si>
+  <si>
+    <t>uiiSia2NAnz</t>
+  </si>
+  <si>
+    <t>New cases with grade 2 disabilities-Children _GHO</t>
+  </si>
+  <si>
+    <t>tzGljEoaVdT</t>
+  </si>
+  <si>
+    <t>New cases with grade 2 disabilities _GHO</t>
+  </si>
+  <si>
+    <t>TBTHguhWty1</t>
+  </si>
+  <si>
+    <t>New child cases _GHO</t>
+  </si>
+  <si>
+    <t>mNPlDlzmwru</t>
+  </si>
+  <si>
+    <t>New female cases _GHO</t>
+  </si>
+  <si>
+    <t>vrltiuqfmsj</t>
+  </si>
+  <si>
+    <t>New MB cases - Subnational_GLP</t>
+  </si>
+  <si>
+    <t>Im9Wvx4SVYb</t>
+  </si>
+  <si>
+    <t>New PB cases - Subnational_GLP</t>
+  </si>
+  <si>
+    <t>ze0DbmcIajV</t>
+  </si>
+  <si>
+    <t>New Relapses _GHO</t>
+  </si>
+  <si>
+    <t>JypGPnTq5Bf</t>
+  </si>
+  <si>
+    <t>New Unclassified cases - Subnational_GLP</t>
+  </si>
+  <si>
+    <t>nxJMXKer2ZX</t>
+  </si>
+  <si>
+    <t>No ENL cases registered over past 2 years_MDT</t>
+  </si>
+  <si>
+    <t>jOyvqv5uJtg</t>
+  </si>
+  <si>
+    <t>Packing List_MDT</t>
+  </si>
+  <si>
+    <t>IW3BXD1xO0E</t>
+  </si>
+  <si>
+    <t>PB - lost to follow-up - 9 months_GLP</t>
+  </si>
+  <si>
+    <t>m3Ri2WLjD2X</t>
+  </si>
+  <si>
+    <t>PB - Patients assessed for disability grading at treatment completion_GLP</t>
+  </si>
+  <si>
+    <t>PB - Patients assessed for disability grading_GLP</t>
+  </si>
+  <si>
+    <t>mPrCvcc0Dxt</t>
+  </si>
+  <si>
+    <t>PB - Patients treated for Type 1 (ENL) reactions_GLP</t>
+  </si>
+  <si>
+    <t>PB - Patients treated for Type 1 reactions_GLP</t>
+  </si>
+  <si>
+    <t>BvcLwHp7Nnt</t>
+  </si>
+  <si>
+    <t>PB - Patients treated for Type 2 (ENL) reactions_GLP</t>
+  </si>
+  <si>
+    <t>PB - Patients treated for Type 2 reactions_GLP</t>
+  </si>
+  <si>
+    <t>EHT4ON2ZtNl</t>
+  </si>
+  <si>
+    <t>PB - Retreatment Cases - Others_GLP</t>
+  </si>
+  <si>
+    <t>YVj2PYy0Slj</t>
+  </si>
+  <si>
+    <t>PB - Retreatment Cases - Relapses_GLP</t>
+  </si>
+  <si>
+    <t>YPtOZRRF9aE</t>
+  </si>
+  <si>
+    <t>PB blisters 1 expiring - Batch no_MDT</t>
+  </si>
+  <si>
+    <t>UnoBfuwgV3n</t>
+  </si>
+  <si>
+    <t>PB blisters 1 expiring - Expiry month_MDT</t>
+  </si>
+  <si>
+    <t>BBTIvTXdJV6</t>
+  </si>
+  <si>
+    <t>PB blisters 1 expiring - Quantity blister_MDT</t>
+  </si>
+  <si>
+    <t>KXzL2RCujTq</t>
+  </si>
+  <si>
+    <t>PB blisters 2 expiring - Batch no_MDT</t>
+  </si>
+  <si>
+    <t>Qage09HbTvh</t>
+  </si>
+  <si>
+    <t>PB blisters 2 expiring - Expiry month_MDT</t>
+  </si>
+  <si>
+    <t>Si1cDxMGjL3</t>
+  </si>
+  <si>
+    <t>PB blisters 2 expiring - Quantity blister_MDT</t>
+  </si>
+  <si>
+    <t>lbDmYC66edw</t>
+  </si>
+  <si>
+    <t>PB blisters 3 expiring - Batch no_MDT</t>
+  </si>
+  <si>
+    <t>ON5o00mBr7W</t>
+  </si>
+  <si>
+    <t>PB blisters 3 expiring - Expiry month_MDT</t>
+  </si>
+  <si>
+    <t>nDvgWCvpWgD</t>
+  </si>
+  <si>
+    <t>PB blisters 3 expiring - Quantity blister_MDT</t>
+  </si>
+  <si>
+    <t>BBYQWtCCL7B</t>
+  </si>
+  <si>
+    <t>PB blisters expiring_MDT</t>
+  </si>
+  <si>
+    <t>gVmFx873rdZ</t>
+  </si>
+  <si>
+    <t>PB Cases_GLP</t>
+  </si>
+  <si>
+    <t>ubgNtdy3h9H</t>
+  </si>
+  <si>
+    <t>PB cases - child - age wise_GLP</t>
+  </si>
+  <si>
+    <t>t5AmFhGyKw9</t>
+  </si>
+  <si>
+    <t>PB Cases - Treatment Completed within 9 Months_GLP</t>
+  </si>
+  <si>
+    <t>PB Cases - Treatment Completed in 9 Months_GLP</t>
+  </si>
+  <si>
+    <t>gK6hEAvQrtb</t>
+  </si>
+  <si>
+    <t>PB cases - Worsening of disability grading_GLP</t>
+  </si>
+  <si>
+    <t>mdupOTsRJ58</t>
+  </si>
+  <si>
+    <t>PB Cases on Treatment_GLP</t>
+  </si>
+  <si>
+    <t>iPq97RFrzOM</t>
+  </si>
+  <si>
+    <t>PB central stock_MDT</t>
+  </si>
+  <si>
+    <t>sSA6nyxkXye</t>
+  </si>
+  <si>
+    <t>PB country supply_MDT</t>
+  </si>
+  <si>
+    <t>AvMSN2UQsy6</t>
+  </si>
+  <si>
+    <t>PB district stock_MDT</t>
+  </si>
+  <si>
+    <t>x67cJPQmT6Z</t>
+  </si>
+  <si>
+    <t>PB new case detected-MDT</t>
+  </si>
+  <si>
+    <t>v37Or4BVtAp</t>
+  </si>
+  <si>
+    <t>PB regional stock_MDT</t>
+  </si>
+  <si>
+    <t>F3yK9x2EDag</t>
+  </si>
+  <si>
+    <t>PB Treatment Protocol - Duration_MDT</t>
+  </si>
+  <si>
+    <t>i8X5Gitnm0S</t>
+  </si>
+  <si>
+    <t>PB Treatment Protocol - Regimen_MDT</t>
+  </si>
+  <si>
+    <t>d1d6EWQZJGB</t>
+  </si>
+  <si>
+    <t>Population_GLP</t>
+  </si>
+  <si>
+    <t>b53NzLKRed0</t>
+  </si>
+  <si>
+    <t>Population - Subnational_GLP</t>
+  </si>
+  <si>
+    <t>wqv6JnGCCnz</t>
+  </si>
+  <si>
+    <t>Population_GHO</t>
+  </si>
+  <si>
+    <t>puR2s9uMnVJ</t>
+  </si>
+  <si>
+    <t>Read and accept data policy_MDT</t>
+  </si>
+  <si>
+    <t>P913TAqVe2N</t>
+  </si>
+  <si>
+    <t>Recipient Bldg. c/o Street_MDT</t>
+  </si>
+  <si>
+    <t>fjpQNeK3yU8</t>
+  </si>
+  <si>
+    <t>Recipient City_MDT</t>
+  </si>
+  <si>
+    <t>rb17dxtWOBT</t>
+  </si>
+  <si>
+    <t>Recipient Country_MDT</t>
+  </si>
+  <si>
+    <t>hETztUCLosf</t>
+  </si>
+  <si>
+    <t>Recipient Department/Unit_MDT</t>
+  </si>
+  <si>
+    <t>oHn6BzdPXi6</t>
+  </si>
+  <si>
+    <t>Recipient E-mail_MDT</t>
+  </si>
+  <si>
+    <t>GKMzAuqn1bJ</t>
+  </si>
+  <si>
+    <t>Recipient Full Name and title_MDT</t>
+  </si>
+  <si>
+    <t>pJC3Rz2aGhO</t>
+  </si>
+  <si>
+    <t>Recipient Function_MDT</t>
+  </si>
+  <si>
+    <t>ILVyLw1MloX</t>
+  </si>
+  <si>
+    <t>Recipient Organization_MDT</t>
+  </si>
+  <si>
+    <t>EhcvLHvYEtk</t>
+  </si>
+  <si>
+    <t>Recipient P.O. Box_MDT</t>
+  </si>
+  <si>
+    <t>Td0dxnNfOUd</t>
+  </si>
+  <si>
+    <t>Recipient Phone_MDT</t>
+  </si>
+  <si>
+    <t>NOAuz8Ajnnv</t>
+  </si>
+  <si>
+    <t>Recipient Postal Code_MDT</t>
+  </si>
+  <si>
+    <t>pXzJVLg3FNQ</t>
+  </si>
+  <si>
+    <t>Remarks - Import requirements_MDT</t>
+  </si>
+  <si>
+    <t>GVNenYuH0E9</t>
+  </si>
+  <si>
+    <t>Request according to WHO guidelines_MDT</t>
+  </si>
+  <si>
+    <t>sgdAybfDzTl</t>
+  </si>
+  <si>
+    <t>Retreatment cases resistant to drug_GLP</t>
+  </si>
+  <si>
+    <t>JK1VCsNhg6x</t>
+  </si>
+  <si>
+    <t>Retreatment Cases Tested for Drug Resistance_GLP</t>
+  </si>
+  <si>
+    <t>lk5YKbM2SEu</t>
+  </si>
+  <si>
+    <t>School children examination - Cases Detected_GLP</t>
+  </si>
+  <si>
+    <t>hcmT8KR85PW</t>
+  </si>
+  <si>
+    <t>School children examination - People Estimated_GLP</t>
+  </si>
+  <si>
+    <t>School children examination _GLP</t>
+  </si>
+  <si>
+    <t>zZcTJntCnMe</t>
+  </si>
+  <si>
+    <t>School children examination - People Examined_GLP</t>
+  </si>
+  <si>
+    <t>HGuBXziVewk</t>
+  </si>
+  <si>
+    <t>Shift date _MDT</t>
+  </si>
+  <si>
+    <t>BgaFppflxBt</t>
+  </si>
+  <si>
+    <t>Special requirements_MDT</t>
+  </si>
+  <si>
+    <t>ObSThhA8DGn</t>
+  </si>
+  <si>
+    <t>Stigma and discrimination - Research studies initiated_GLP</t>
+  </si>
+  <si>
+    <t>Stigma and discrimination_GLP</t>
+  </si>
+  <si>
+    <t>sU0XC8KwCMS</t>
+  </si>
+  <si>
+    <t>Stock - Central - Clofazimine_MDT</t>
+  </si>
+  <si>
+    <t>xqMSnnJSv8O</t>
+  </si>
+  <si>
+    <t>Stock - District - Clofazimine_MDT</t>
+  </si>
+  <si>
+    <t>VY0IqaYyUU4</t>
+  </si>
+  <si>
+    <t>Stock - Regional - Clofazimine_MDT</t>
+  </si>
+  <si>
+    <t>O2LcMY4kyL5</t>
+  </si>
+  <si>
+    <t>Stock adjustments - Clofazimine 100 mg_MDT</t>
+  </si>
+  <si>
+    <t>lizEO5Czm6v</t>
+  </si>
+  <si>
+    <t>Stock adjustments - Clofazimine 50 mg_MDT</t>
+  </si>
+  <si>
+    <t>wYYdswFEEoI</t>
+  </si>
+  <si>
+    <t>Stock balance - Clofazimine 100 mg_MDT</t>
+  </si>
+  <si>
+    <t>iGM6a6NgxDM</t>
+  </si>
+  <si>
+    <t>Stock balance - Clofazimine 50 mg_MDT</t>
+  </si>
+  <si>
+    <t>TywFTHzhc4s</t>
+  </si>
+  <si>
+    <t>Stock check date_MDT</t>
+  </si>
+  <si>
+    <t>gAsWWwpX7Hb</t>
+  </si>
+  <si>
+    <t>Stock received - Clofazimine 100 mg_MDT</t>
+  </si>
+  <si>
+    <t>yQgTVbWijL5</t>
+  </si>
+  <si>
+    <t>Stock received - Clofazimine 50 mg_MDT</t>
+  </si>
+  <si>
+    <t>qg7YxpxwSai</t>
+  </si>
+  <si>
+    <t>Stock released - Clofazimine 100 mg_MDT</t>
+  </si>
+  <si>
+    <t>ygvl1shUnfu</t>
+  </si>
+  <si>
+    <t>Stock released - Clofazimine 50 mg_MDT</t>
+  </si>
+  <si>
+    <t>eWqXKtyS9Vz</t>
+  </si>
+  <si>
+    <t>Stock request - Clofazimine 100mg_MDT</t>
+  </si>
+  <si>
+    <t>aKAK0Re175N</t>
+  </si>
+  <si>
+    <t>Stock request - Clofazimine 50 mg_MDT</t>
+  </si>
+  <si>
+    <t>Ya3pZ5MqWb0</t>
+  </si>
+  <si>
+    <t>Stock request - MB - 3 drug blister_MDT</t>
+  </si>
+  <si>
+    <t>rPP8oKUZTK8</t>
+  </si>
+  <si>
+    <t>Stock request - PB - 2 drug blister_MDT</t>
+  </si>
+  <si>
+    <t>tNDxT1pfzUM</t>
+  </si>
+  <si>
+    <t>Stock request - PB - 3 drug blister_MDT</t>
+  </si>
+  <si>
+    <t>IjAnXBfMVlK</t>
+  </si>
+  <si>
+    <t>Street 2_MDT</t>
+  </si>
+  <si>
+    <t>tPPJm9CP12N</t>
+  </si>
+  <si>
+    <t>Street 2 - Delivery address_MDT</t>
+  </si>
+  <si>
+    <t>iINDXwxmVsG</t>
+  </si>
+  <si>
+    <t>Submission remarks_MDT</t>
+  </si>
+  <si>
+    <t>pS0pxWNAPku</t>
+  </si>
+  <si>
+    <t>Supplies - Country - Clofazimine_MDT</t>
+  </si>
+  <si>
+    <t>DNuo2eJDc1j</t>
+  </si>
+  <si>
+    <t>Time taken to obtain IP/GL_MDT</t>
+  </si>
+  <si>
+    <t>Q4vt3c6waMG</t>
+  </si>
+  <si>
+    <t>Title and name_MDT</t>
+  </si>
+  <si>
+    <t>vbVx5GUmxU5</t>
+  </si>
+  <si>
+    <t>Total district_GLP</t>
+  </si>
+  <si>
+    <t>GZbdFPLrNJu</t>
+  </si>
+  <si>
+    <t>Training material based on Global leprosy strategy - Availability_GLP</t>
+  </si>
+  <si>
+    <t>Training material - Availability_GLP</t>
+  </si>
+  <si>
+    <t>UqIw5JYYnwv</t>
+  </si>
+  <si>
+    <t>Treatment protocol in accordance with the WHO guidelines_MDT</t>
+  </si>
+  <si>
+    <t>Treatment protocol_MDT</t>
+  </si>
+  <si>
+    <t>IQgrP2W9gTV</t>
+  </si>
+  <si>
+    <t>Unclassified Cases_GLP</t>
+  </si>
+  <si>
+    <t>tyHgOKrZsMJ</t>
+  </si>
+  <si>
+    <t>Unclassified cases - child - age wise_GLP</t>
+  </si>
+  <si>
+    <t>lzbsUQJvvJB</t>
+  </si>
+  <si>
+    <t>Unclassified Cases on Treatment_GLP</t>
+  </si>
+  <si>
+    <t>qGsRWxnlgnp</t>
+  </si>
+  <si>
+    <t>Case based reporting system - Availability_GLP</t>
+  </si>
+  <si>
+    <t>DQEId12dadC</t>
+  </si>
+  <si>
+    <t>WHO guidelines request_MDT</t>
+  </si>
+  <si>
+    <t>xDyPZ8JyID4</t>
+  </si>
+  <si>
+    <t>WHO Recipient 1 - request related _MDT</t>
+  </si>
+  <si>
+    <t>Gslj4POFHRL</t>
+  </si>
+  <si>
+    <t>WHO Recipient 1 - supply related _MDT</t>
+  </si>
+  <si>
+    <t>o3lEqDgSwQM</t>
+  </si>
+  <si>
+    <t>WHO Recipient 2 - request related _MDT</t>
+  </si>
+  <si>
+    <t>ytOlHlNOWqw</t>
+  </si>
+  <si>
+    <t>WHO Recipient 2 - supply related _MDT</t>
+  </si>
+  <si>
+    <t>IGL3YDFpD1W</t>
+  </si>
+  <si>
+    <t>WHO Region_GLP</t>
   </si>
 </sst>
 </file>
@@ -836,21 +1787,15 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -858,17 +1803,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,14 +2161,14 @@
   <dimension ref="A1:E416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C87"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1205,2421 +2180,3531 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>175</v>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>176</v>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>177</v>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>178</v>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>179</v>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>180</v>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>181</v>
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>182</v>
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>183</v>
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>184</v>
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>185</v>
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>186</v>
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>187</v>
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>188</v>
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>189</v>
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>190</v>
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>191</v>
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>192</v>
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>193</v>
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>194</v>
+      <c r="A21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>195</v>
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>196</v>
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>197</v>
+      <c r="A24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>198</v>
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>199</v>
+      <c r="A26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>200</v>
+      <c r="A27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>201</v>
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>202</v>
+      <c r="A29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>203</v>
+      <c r="A30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>204</v>
+      <c r="A31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>205</v>
+      <c r="A32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>206</v>
+      <c r="A33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>207</v>
+      <c r="A34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>208</v>
+      <c r="A35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>209</v>
+      <c r="A36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>210</v>
+      <c r="A37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>211</v>
+      <c r="A38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>212</v>
+      <c r="A39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>213</v>
+      <c r="A40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>214</v>
+      <c r="A41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>215</v>
+      <c r="A42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>216</v>
+      <c r="A43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>217</v>
+      <c r="A44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>218</v>
+      <c r="A45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>219</v>
+      <c r="A46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>220</v>
+      <c r="A47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>221</v>
+      <c r="A48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>222</v>
+      <c r="A49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>223</v>
+      <c r="A50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>224</v>
+      <c r="A51" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>225</v>
+      <c r="A52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>226</v>
+      <c r="A53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>227</v>
+      <c r="A54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>228</v>
+      <c r="A55" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>229</v>
+      <c r="A56" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>230</v>
+      <c r="A57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>231</v>
+      <c r="A58" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>232</v>
+      <c r="A59" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>233</v>
+      <c r="A60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>234</v>
+      <c r="A61" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>235</v>
+      <c r="A62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>236</v>
+      <c r="A63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>237</v>
+      <c r="A64" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>238</v>
+      <c r="A65" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>239</v>
+      <c r="A66" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>240</v>
+      <c r="A67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>241</v>
+      <c r="A68" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>242</v>
+      <c r="A69" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>243</v>
+      <c r="A70" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>244</v>
+      <c r="A71" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>143</v>
+      <c r="A72" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>245</v>
+      <c r="A73" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>246</v>
+      <c r="A74" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>247</v>
+      <c r="A75" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>248</v>
+      <c r="A76" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>249</v>
+      <c r="A77" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>250</v>
+      <c r="A78" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>251</v>
+      <c r="A79" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>252</v>
+      <c r="A80" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>253</v>
+      <c r="A81" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>254</v>
+      <c r="A82" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>255</v>
+      <c r="A83" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>256</v>
+      <c r="A84" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>257</v>
+      <c r="A85" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>258</v>
+      <c r="A86" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>259</v>
+      <c r="A87" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>195</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="A101" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>219</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="A103" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="A107" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="A108" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="A109" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="A110" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="A111" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>239</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="A112" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>241</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="A113" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="A114" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="A115" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>247</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="A116" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>249</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="A117" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+      <c r="A118" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="A119" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>255</v>
+      </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+      <c r="A120" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="A121" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>259</v>
+      </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="A122" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>262</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="A123" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>264</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="A124" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="A125" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+      <c r="A126" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>272</v>
+      </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+      <c r="A127" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>274</v>
+      </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="A128" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>276</v>
+      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>278</v>
+      </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+      <c r="A130" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>280</v>
+      </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
+      <c r="A133" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
+      <c r="A134" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
+      <c r="A136" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
+      <c r="A137" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>299</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
+      <c r="A143" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
+      <c r="A144" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>311</v>
+      </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
+      <c r="A145" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>313</v>
+      </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
+      <c r="A146" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>315</v>
+      </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
+      <c r="A147" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
+      <c r="A148" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>319</v>
+      </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+      <c r="A149" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>321</v>
+      </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
+      <c r="A150" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>323</v>
+      </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
+      <c r="A151" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="A152" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>327</v>
+      </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="A153" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>329</v>
+      </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+      <c r="A154" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>331</v>
+      </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
+      <c r="A155" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
+      <c r="A156" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>335</v>
+      </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
+      <c r="A157" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>337</v>
+      </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
+      <c r="A158" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
+      <c r="A159" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
+      <c r="A160" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>343</v>
+      </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
+      <c r="A161" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>345</v>
+      </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
+      <c r="A162" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>347</v>
+      </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
+      <c r="A163" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>349</v>
+      </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
+      <c r="A164" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>351</v>
+      </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
+      <c r="A165" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>353</v>
+      </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
+      <c r="A166" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>355</v>
+      </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
+      <c r="A167" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>357</v>
+      </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
+      <c r="A168" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>359</v>
+      </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
+      <c r="A169" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>361</v>
+      </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
+      <c r="A170" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
+      <c r="A171" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>366</v>
+      </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
+      <c r="A172" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>368</v>
+      </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
+      <c r="A173" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>370</v>
+      </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
+      <c r="A174" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>372</v>
+      </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
+      <c r="A175" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>374</v>
+      </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
+      <c r="A176" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>376</v>
+      </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
+      <c r="A177" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>378</v>
+      </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
+      <c r="A178" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
+      <c r="A179" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>382</v>
+      </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
+      <c r="A180" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>384</v>
+      </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
+      <c r="A181" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
+      <c r="A182" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
+      <c r="A183" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
+      <c r="A184" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>392</v>
+      </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
+      <c r="A185" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>395</v>
+      </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
+      <c r="A186" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>398</v>
+      </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
+      <c r="A187" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>401</v>
+      </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
+      <c r="A188" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>403</v>
+      </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
+      <c r="A189" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>405</v>
+      </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
+      <c r="A190" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
+      <c r="A191" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>409</v>
+      </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
+      <c r="A192" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
+      <c r="A193" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>413</v>
+      </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
+      <c r="A194" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>415</v>
+      </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
+      <c r="A195" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>417</v>
+      </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
+      <c r="A196" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>419</v>
+      </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
+      <c r="A197" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
+      <c r="A198" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>423</v>
+      </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
+      <c r="A199" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>425</v>
+      </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
+      <c r="A200" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>427</v>
+      </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
+      <c r="A201" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>429</v>
+      </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
+      <c r="A202" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>432</v>
+      </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
+      <c r="A203" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>434</v>
+      </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
+      <c r="A204" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>436</v>
+      </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
+      <c r="A205" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
+      <c r="A206" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
+      <c r="A207" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>442</v>
+      </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
+      <c r="A208" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>444</v>
+      </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
+      <c r="A209" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>446</v>
+      </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
+      <c r="A210" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
+      <c r="A211" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>450</v>
+      </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
+      <c r="A212" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
+      <c r="A213" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
+      <c r="A214" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
+      <c r="A215" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>458</v>
+      </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
+      <c r="A216" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
+      <c r="A217" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>462</v>
+      </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
+      <c r="A218" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>464</v>
+      </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
+      <c r="A219" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>466</v>
+      </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
+      <c r="A220" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>468</v>
+      </c>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
+      <c r="A221" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>470</v>
+      </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
+      <c r="A222" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>472</v>
+      </c>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
+      <c r="A223" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>474</v>
+      </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
+      <c r="A224" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>476</v>
+      </c>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
+      <c r="A225" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>478</v>
+      </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
+      <c r="A226" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>480</v>
+      </c>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
+      <c r="A227" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>482</v>
+      </c>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
+      <c r="A228" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>484</v>
+      </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
+      <c r="A229" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>486</v>
+      </c>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
+      <c r="A230" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>488</v>
+      </c>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
+      <c r="A231" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>490</v>
+      </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
+      <c r="A232" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>493</v>
+      </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
+      <c r="A233" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>495</v>
+      </c>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
+      <c r="A234" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>497</v>
+      </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
+      <c r="A235" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>499</v>
+      </c>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
+      <c r="A236" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>502</v>
+      </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
+      <c r="A237" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>504</v>
+      </c>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
+      <c r="A238" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>506</v>
+      </c>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
+      <c r="A239" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>508</v>
+      </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
+      <c r="A240" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>510</v>
+      </c>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
+      <c r="A241" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>512</v>
+      </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
+      <c r="A242" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>514</v>
+      </c>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
+      <c r="A243" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>516</v>
+      </c>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
+      <c r="A244" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>518</v>
+      </c>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
+      <c r="A245" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>520</v>
+      </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
+      <c r="A246" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>522</v>
+      </c>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
+      <c r="A247" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>524</v>
+      </c>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
+      <c r="A248" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>526</v>
+      </c>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
+      <c r="A249" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
+      <c r="A250" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>530</v>
+      </c>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
+      <c r="A251" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>532</v>
+      </c>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
+      <c r="A252" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>534</v>
+      </c>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
+      <c r="A253" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>536</v>
+      </c>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
+      <c r="A254" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>538</v>
+      </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
+      <c r="A255" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>540</v>
+      </c>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
+      <c r="A256" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>542</v>
+      </c>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
+      <c r="A257" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>544</v>
+      </c>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="3"/>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
+      <c r="A258" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>546</v>
+      </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
-      <c r="B259" s="3"/>
-      <c r="C259" s="3"/>
+      <c r="A259" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>548</v>
+      </c>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="3"/>
-      <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
+      <c r="A260" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>550</v>
+      </c>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
+      <c r="A261" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>553</v>
+      </c>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="3"/>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
+      <c r="A262" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>556</v>
+      </c>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="3"/>
-      <c r="B263" s="3"/>
-      <c r="C263" s="3"/>
+      <c r="A263" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>558</v>
+      </c>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="3"/>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
+      <c r="A264" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>560</v>
+      </c>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
+      <c r="A265" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>562</v>
+      </c>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="3"/>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
+      <c r="A266" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>564</v>
+      </c>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="3"/>
-      <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
+      <c r="A267" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>566</v>
+      </c>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
+      <c r="A268" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>568</v>
+      </c>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
+      <c r="A269" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>570</v>
+      </c>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="3"/>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
+      <c r="A270" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>572</v>
+      </c>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
+      <c r="A271" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>574</v>
+      </c>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="3"/>
-      <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
+      <c r="A272" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>576</v>
+      </c>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
     </row>
@@ -4638,15 +6723,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064994C001712374395B345EB88ED991F" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c1a62579524e26006c6d5335831b55c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9770305-a86c-4dd4-a8e3-5283c3e6bf99" xmlns:ns3="3f48127a-ff27-4c8f-88c3-e54b29f41588" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="658091719f3253a39288b5ed2add5a7b" ns2:_="" ns3:_="">
     <xsd:import namespace="f9770305-a86c-4dd4-a8e3-5283c3e6bf99"/>
@@ -4843,6 +6919,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4850,14 +6935,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A4371F-7DC5-4CF4-A869-E47776CCD6EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E76993AC-6818-4630-B1D6-F654BE5E03B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4876,6 +6953,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A4371F-7DC5-4CF4-A869-E47776CCD6EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACBAC26C-ABD4-4796-8551-545E34A88729}">
   <ds:schemaRefs>
